--- a/Assignments/hw1/q2/q2r1.xlsx
+++ b/Assignments/hw1/q2/q2r1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Aero_5830\Assignments\hw1\q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D54F4A9-1C14-4BF3-B402-B301CFF903E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967D8CB9-223D-4A44-905A-DCA030479092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="1965" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E9679AB0-B6B3-4152-B8AC-7AD4B5BE869B}"/>
   </bookViews>
@@ -18,8 +18,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Sheet1!$B$1:$B$8</definedName>
-    <definedName name="ExternalData_2" localSheetId="2" hidden="1">Sheet1!$D$1:$D$8</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Sheet1!$B$1:$B$9</definedName>
+    <definedName name="ExternalData_2" localSheetId="2" hidden="1">Sheet1!$D$1:$D$9</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">dal!$A$1:$A$8</definedName>
     <definedName name="ExternalData_3" localSheetId="2" hidden="1">Sheet1!$E$1:$E$8</definedName>
     <definedName name="ExternalData_4" localSheetId="2" hidden="1">Sheet1!$C$1:$C$8</definedName>
@@ -63,45 +63,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Column1</t>
-  </si>
-  <si>
-    <t>1.581117381310214</t>
-  </si>
-  <si>
-    <t>1.84609708400156</t>
-  </si>
-  <si>
-    <t>1.882453694980025</t>
-  </si>
-  <si>
-    <t>1.8749459065846175</t>
-  </si>
-  <si>
-    <t>1.875103218373488</t>
-  </si>
-  <si>
-    <t>1.8751040688106984</t>
-  </si>
-  <si>
-    <t>1.9999833333373016</t>
-  </si>
-  <si>
-    <t>-0.5656258353157435</t>
-  </si>
-  <si>
-    <t>0.9738565686307677</t>
-  </si>
-  <si>
-    <t>0.11749703838657766</t>
-  </si>
-  <si>
-    <t>-0.03057812493919876</t>
-  </si>
-  <si>
-    <t>0.0006544200862041993</t>
   </si>
   <si>
     <t>1.9</t>
@@ -150,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +122,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,9 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,20 +254,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C658EF61-B332-4964-8877-8945BDB56894}" name="al" displayName="al" ref="B1:B8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="B1:B8" xr:uid="{6FCD3B4E-DACB-4C1C-AA2E-0E35075350C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C658EF61-B332-4964-8877-8945BDB56894}" name="al" displayName="al" ref="B1:B9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B1:B9" xr:uid="{6FCD3B4E-DACB-4C1C-AA2E-0E35075350C6}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{51E77B48-864F-4011-9069-9CFA16A39101}" uniqueName="1" name="a_n" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{51E77B48-864F-4011-9069-9CFA16A39101}" uniqueName="1" name="a_n" queryTableFieldId="1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFC00CA2-1EAC-478C-B397-6D8C1F651EE4}" name="fl" displayName="fl" ref="D1:D8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="D1:D8" xr:uid="{895CBCA9-C35E-4E1E-8F90-7B99121B9077}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFC00CA2-1EAC-478C-B397-6D8C1F651EE4}" name="fl" displayName="fl" ref="D1:D9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="D1:D9" xr:uid="{895CBCA9-C35E-4E1E-8F90-7B99121B9077}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3161F82C-5954-416F-8317-E07C2601E21D}" uniqueName="1" name="f(a)" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3161F82C-5954-416F-8317-E07C2601E21D}" uniqueName="1" name="f(a)" queryTableFieldId="1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -299,7 +277,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE78BB8A-5DF7-43A3-8F88-1A45CF400DFD}" name="dal_6" displayName="dal_6" ref="E1:E8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:E8" xr:uid="{37DC60A9-8E3A-4693-B646-A5B1502C34B9}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{22EC89C3-F8A2-4F87-9C87-E7706C0EEE46}" uniqueName="1" name="a_n+1 - a_n" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{22EC89C3-F8A2-4F87-9C87-E7706C0EEE46}" uniqueName="1" name="a_n+1 - a_n" queryTableFieldId="1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,37 +625,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -690,10 +668,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D6CFE-2378-4776-ABED-A670053958CA}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,144 +684,162 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1.9999833333373001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
+      <c r="C3" s="1">
+        <v>1.58111738131021</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.56562583531574295</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-0.41888261868978599</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
+      <c r="B4" s="1">
+        <v>1.58111738131021</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.84609708400156</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.9999833333373001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.26497970269134602</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
+      <c r="B5" s="1">
+        <v>1.84609708400156</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.8824536949800199</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.56562583531574295</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.6356610978464897E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
+      <c r="B6" s="1">
+        <v>1.8824536949800199</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.8749459065846099</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.97385656863076697</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-7.5077883954075501E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
+      <c r="B7" s="1">
+        <v>1.8749459065846099</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.8751032183734799</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.117497038386577</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.5731178887046199E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
+      <c r="B8" s="1">
+        <v>1.8751032183734799</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.8751040688106899</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-3.05781249391987E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8.5043721043120904E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>1.8751040688106899</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.5442008620419901E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Assignments/hw1/q2/q2r1.xlsx
+++ b/Assignments/hw1/q2/q2r1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Aero_5830\Assignments\hw1\q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967D8CB9-223D-4A44-905A-DCA030479092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD3017B-1EE8-426B-BAC0-F533B442CFF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1965" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E9679AB0-B6B3-4152-B8AC-7AD4B5BE869B}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E9679AB0-B6B3-4152-B8AC-7AD4B5BE869B}"/>
   </bookViews>
   <sheets>
     <sheet name="fl" sheetId="2" r:id="rId1"/>
@@ -671,15 +671,15 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
